--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.885677</v>
+        <v>9.289615</v>
       </c>
       <c r="H2">
-        <v>35.657031</v>
+        <v>27.868845</v>
       </c>
       <c r="I2">
-        <v>0.439531316320202</v>
+        <v>0.3997772888571298</v>
       </c>
       <c r="J2">
-        <v>0.4886973636926559</v>
+        <v>0.439676128114975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N2">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O2">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P2">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q2">
-        <v>100.6078858377564</v>
+        <v>86.98357635479667</v>
       </c>
       <c r="R2">
-        <v>905.4709725398072</v>
+        <v>782.85218719317</v>
       </c>
       <c r="S2">
-        <v>0.02026446007415141</v>
+        <v>0.01669367467899025</v>
       </c>
       <c r="T2">
-        <v>0.02363603707173536</v>
+        <v>0.01901171194688218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.885677</v>
+        <v>9.289615</v>
       </c>
       <c r="H3">
-        <v>35.657031</v>
+        <v>27.868845</v>
       </c>
       <c r="I3">
-        <v>0.439531316320202</v>
+        <v>0.3997772888571298</v>
       </c>
       <c r="J3">
-        <v>0.4886973636926559</v>
+        <v>0.439676128114975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P3">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q3">
-        <v>466.2143332816067</v>
+        <v>364.3840955519667</v>
       </c>
       <c r="R3">
-        <v>4195.928999534461</v>
+        <v>3279.4568599677</v>
       </c>
       <c r="S3">
-        <v>0.0939049823392346</v>
+        <v>0.06993170210122304</v>
       </c>
       <c r="T3">
-        <v>0.1095287826899453</v>
+        <v>0.07964222388836241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.885677</v>
+        <v>9.289615</v>
       </c>
       <c r="H4">
-        <v>35.657031</v>
+        <v>27.868845</v>
       </c>
       <c r="I4">
-        <v>0.439531316320202</v>
+        <v>0.3997772888571298</v>
       </c>
       <c r="J4">
-        <v>0.4886973636926559</v>
+        <v>0.439676128114975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N4">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O4">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P4">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q4">
-        <v>656.9289350043567</v>
+        <v>662.209601450025</v>
       </c>
       <c r="R4">
-        <v>5912.360415039211</v>
+        <v>5959.886413050225</v>
       </c>
       <c r="S4">
-        <v>0.1323187547785118</v>
+        <v>0.1270896428863711</v>
       </c>
       <c r="T4">
-        <v>0.15433379334</v>
+        <v>0.1447369574674113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.885677</v>
+        <v>9.289615</v>
       </c>
       <c r="H5">
-        <v>35.657031</v>
+        <v>27.868845</v>
       </c>
       <c r="I5">
-        <v>0.439531316320202</v>
+        <v>0.3997772888571298</v>
       </c>
       <c r="J5">
-        <v>0.4886973636926559</v>
+        <v>0.439676128114975</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N5">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O5">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P5">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q5">
-        <v>305.9944544865006</v>
+        <v>214.3024303474875</v>
       </c>
       <c r="R5">
-        <v>1835.966726919003</v>
+        <v>1285.814582084925</v>
       </c>
       <c r="S5">
-        <v>0.06163346296584615</v>
+        <v>0.04112839693490763</v>
       </c>
       <c r="T5">
-        <v>0.04792531062393877</v>
+        <v>0.03122624788128402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.885677</v>
+        <v>9.289615</v>
       </c>
       <c r="H6">
-        <v>35.657031</v>
+        <v>27.868845</v>
       </c>
       <c r="I6">
-        <v>0.439531316320202</v>
+        <v>0.3997772888571298</v>
       </c>
       <c r="J6">
-        <v>0.4886973636926559</v>
+        <v>0.439676128114975</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N6">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O6">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P6">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q6">
-        <v>652.4154917917307</v>
+        <v>755.1882246519949</v>
       </c>
       <c r="R6">
-        <v>5871.739426125577</v>
+        <v>6796.694021867955</v>
       </c>
       <c r="S6">
-        <v>0.1314096561624579</v>
+        <v>0.1449338722556377</v>
       </c>
       <c r="T6">
-        <v>0.1532734399670364</v>
+        <v>0.1650589869310351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.424084</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H7">
         <v>16.272252</v>
       </c>
       <c r="I7">
-        <v>0.2005821612308114</v>
+        <v>0.2334247001682348</v>
       </c>
       <c r="J7">
-        <v>0.2230193157064183</v>
+        <v>0.2567211075690851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N7">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O7">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P7">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q7">
-        <v>45.912876805116</v>
+        <v>50.78856602440801</v>
       </c>
       <c r="R7">
-        <v>413.215891246044</v>
+        <v>457.0970942196721</v>
       </c>
       <c r="S7">
-        <v>0.009247780640248214</v>
+        <v>0.009747217051246596</v>
       </c>
       <c r="T7">
-        <v>0.01078641549019098</v>
+        <v>0.01110068851978177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.424084</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H8">
         <v>16.272252</v>
       </c>
       <c r="I8">
-        <v>0.2005821612308114</v>
+        <v>0.2334247001682348</v>
       </c>
       <c r="J8">
-        <v>0.2230193157064183</v>
+        <v>0.2567211075690851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P8">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q8">
         <v>212.75908017048</v>
@@ -948,10 +948,10 @@
         <v>1914.83172153432</v>
       </c>
       <c r="S8">
-        <v>0.04285397560665034</v>
+        <v>0.04083220095343137</v>
       </c>
       <c r="T8">
-        <v>0.04998396959028999</v>
+        <v>0.04650204688970257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.424084</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H9">
         <v>16.272252</v>
       </c>
       <c r="I9">
-        <v>0.2005821612308114</v>
+        <v>0.2334247001682348</v>
       </c>
       <c r="J9">
-        <v>0.2230193157064183</v>
+        <v>0.2567211075690851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N9">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O9">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P9">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q9">
-        <v>299.79257601348</v>
+        <v>386.6554753745401</v>
       </c>
       <c r="R9">
-        <v>2698.13318412132</v>
+        <v>3479.89927837086</v>
       </c>
       <c r="S9">
-        <v>0.06038427938888542</v>
+        <v>0.0742059707044565</v>
       </c>
       <c r="T9">
-        <v>0.07043094466682887</v>
+        <v>0.0845100055500326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.424084</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H10">
         <v>16.272252</v>
       </c>
       <c r="I10">
-        <v>0.2005821612308114</v>
+        <v>0.2334247001682348</v>
       </c>
       <c r="J10">
-        <v>0.2230193157064183</v>
+        <v>0.2567211075690851</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N10">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O10">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P10">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q10">
-        <v>139.641993019746</v>
+        <v>125.12837007873</v>
       </c>
       <c r="R10">
-        <v>837.851958118476</v>
+        <v>750.7702204723801</v>
       </c>
       <c r="S10">
-        <v>0.02812671758938415</v>
+        <v>0.02401432995450098</v>
       </c>
       <c r="T10">
-        <v>0.02187093848758773</v>
+        <v>0.01823259537805458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.424084</v>
+        <v>5.424084000000001</v>
       </c>
       <c r="H11">
         <v>16.272252</v>
       </c>
       <c r="I11">
-        <v>0.2005821612308114</v>
+        <v>0.2334247001682348</v>
       </c>
       <c r="J11">
-        <v>0.2230193157064183</v>
+        <v>0.2567211075690851</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N11">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O11">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P11">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q11">
-        <v>297.732845203488</v>
+        <v>440.944470392292</v>
       </c>
       <c r="R11">
-        <v>2679.595606831392</v>
+        <v>3968.500233530629</v>
       </c>
       <c r="S11">
-        <v>0.05996940800564322</v>
+        <v>0.08462498150459932</v>
       </c>
       <c r="T11">
-        <v>0.06994704747152078</v>
+        <v>0.09637577123151354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.119691333333333</v>
+        <v>1.032076666666667</v>
       </c>
       <c r="H12">
-        <v>3.359074</v>
+        <v>3.09623</v>
       </c>
       <c r="I12">
-        <v>0.04140608949850497</v>
+        <v>0.04441527573453837</v>
       </c>
       <c r="J12">
-        <v>0.04603778167196659</v>
+        <v>0.04884803866659809</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N12">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O12">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P12">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q12">
-        <v>9.477775463486445</v>
+        <v>9.663879454531113</v>
       </c>
       <c r="R12">
-        <v>85.29997917137801</v>
+        <v>86.97491509078002</v>
       </c>
       <c r="S12">
-        <v>0.001909015390516392</v>
+        <v>0.001854668047826524</v>
       </c>
       <c r="T12">
-        <v>0.002226635122556962</v>
+        <v>0.002112202098124089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.119691333333333</v>
+        <v>1.032076666666667</v>
       </c>
       <c r="H13">
-        <v>3.359074</v>
+        <v>3.09623</v>
       </c>
       <c r="I13">
-        <v>0.04140608949850497</v>
+        <v>0.04441527573453837</v>
       </c>
       <c r="J13">
-        <v>0.04603778167196659</v>
+        <v>0.04884803866659809</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P13">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q13">
-        <v>43.91976565164889</v>
+        <v>40.48309028131112</v>
       </c>
       <c r="R13">
-        <v>395.27789086484</v>
+        <v>364.3478125318001</v>
       </c>
       <c r="S13">
-        <v>0.008846327801273811</v>
+        <v>0.007769415416995927</v>
       </c>
       <c r="T13">
-        <v>0.01031816940074022</v>
+        <v>0.00884825484765746</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.119691333333333</v>
+        <v>1.032076666666667</v>
       </c>
       <c r="H14">
-        <v>3.359074</v>
+        <v>3.09623</v>
       </c>
       <c r="I14">
-        <v>0.04140608949850497</v>
+        <v>0.04441527573453837</v>
       </c>
       <c r="J14">
-        <v>0.04603778167196659</v>
+        <v>0.04884803866659809</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N14">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O14">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P14">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q14">
-        <v>61.88605286348223</v>
+        <v>73.57151809835001</v>
       </c>
       <c r="R14">
-        <v>556.9744757713401</v>
+        <v>662.1436628851501</v>
       </c>
       <c r="S14">
-        <v>0.0124651008910101</v>
+        <v>0.01411966534652114</v>
       </c>
       <c r="T14">
-        <v>0.01453902969458582</v>
+        <v>0.0160802828326514</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.119691333333333</v>
+        <v>1.032076666666667</v>
       </c>
       <c r="H15">
-        <v>3.359074</v>
+        <v>3.09623</v>
       </c>
       <c r="I15">
-        <v>0.04140608949850497</v>
+        <v>0.04441527573453837</v>
       </c>
       <c r="J15">
-        <v>0.04603778167196659</v>
+        <v>0.04884803866659809</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N15">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O15">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P15">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q15">
-        <v>28.82623671639367</v>
+        <v>23.809010165825</v>
       </c>
       <c r="R15">
-        <v>172.957420298362</v>
+        <v>142.85406099495</v>
       </c>
       <c r="S15">
-        <v>0.00580618624636854</v>
+        <v>0.004569366848241076</v>
       </c>
       <c r="T15">
-        <v>0.004514808449946281</v>
+        <v>0.003469237619193332</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.119691333333333</v>
+        <v>1.032076666666667</v>
       </c>
       <c r="H16">
-        <v>3.359074</v>
+        <v>3.09623</v>
       </c>
       <c r="I16">
-        <v>0.04140608949850497</v>
+        <v>0.04441527573453837</v>
       </c>
       <c r="J16">
-        <v>0.04603778167196659</v>
+        <v>0.04884803866659809</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N16">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O16">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P16">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q16">
-        <v>61.46086351594489</v>
+        <v>83.90144754166334</v>
       </c>
       <c r="R16">
-        <v>553.147771643504</v>
+        <v>755.11302787497</v>
       </c>
       <c r="S16">
-        <v>0.01237945916933612</v>
+        <v>0.0161021600749537</v>
       </c>
       <c r="T16">
-        <v>0.0144391390041373</v>
+        <v>0.01833806126897181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.1617005</v>
+        <v>6.325986</v>
       </c>
       <c r="H17">
-        <v>16.323401</v>
+        <v>12.651972</v>
       </c>
       <c r="I17">
-        <v>0.3018189846633264</v>
+        <v>0.2722379272368294</v>
       </c>
       <c r="J17">
-        <v>0.2237203382187951</v>
+        <v>0.1996053321183234</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N17">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O17">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P17">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q17">
-        <v>69.08579394728284</v>
+        <v>59.23355125593201</v>
       </c>
       <c r="R17">
-        <v>414.5147636836971</v>
+        <v>355.401307535592</v>
       </c>
       <c r="S17">
-        <v>0.01391527415051172</v>
+        <v>0.01136795790868048</v>
       </c>
       <c r="T17">
-        <v>0.0108203207152273</v>
+        <v>0.008630987298684924</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.1617005</v>
+        <v>6.325986</v>
       </c>
       <c r="H18">
-        <v>16.323401</v>
+        <v>12.651972</v>
       </c>
       <c r="I18">
-        <v>0.3018189846633264</v>
+        <v>0.2722379272368294</v>
       </c>
       <c r="J18">
-        <v>0.2237203382187951</v>
+        <v>0.1996053321183234</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P18">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q18">
-        <v>320.1417771197767</v>
+        <v>248.13608390492</v>
       </c>
       <c r="R18">
-        <v>1920.85066271866</v>
+        <v>1488.81650342952</v>
       </c>
       <c r="S18">
-        <v>0.0644830194620485</v>
+        <v>0.04762166876113893</v>
       </c>
       <c r="T18">
-        <v>0.05014108552363308</v>
+        <v>0.03615618755112716</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.1617005</v>
+        <v>6.325986</v>
       </c>
       <c r="H19">
-        <v>16.323401</v>
+        <v>12.651972</v>
       </c>
       <c r="I19">
-        <v>0.3018189846633264</v>
+        <v>0.2722379272368294</v>
       </c>
       <c r="J19">
-        <v>0.2237203382187951</v>
+        <v>0.1996053321183234</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N19">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O19">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P19">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q19">
-        <v>451.1023829176517</v>
+        <v>450.9475008209101</v>
       </c>
       <c r="R19">
-        <v>2706.61429750591</v>
+        <v>2705.68500492546</v>
       </c>
       <c r="S19">
-        <v>0.09086113033655192</v>
+        <v>0.08654473857573039</v>
       </c>
       <c r="T19">
-        <v>0.07065233211761096</v>
+        <v>0.06570806695587414</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.1617005</v>
+        <v>6.325986</v>
       </c>
       <c r="H20">
-        <v>16.323401</v>
+        <v>12.651972</v>
       </c>
       <c r="I20">
-        <v>0.3018189846633264</v>
+        <v>0.2722379272368294</v>
       </c>
       <c r="J20">
-        <v>0.2237203382187951</v>
+        <v>0.1996053321183234</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N20">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O20">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P20">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q20">
-        <v>210.1214000834533</v>
+        <v>145.934376628545</v>
       </c>
       <c r="R20">
-        <v>840.4856003338131</v>
+        <v>583.73750651418</v>
       </c>
       <c r="S20">
-        <v>0.0423226935668097</v>
+        <v>0.02800736771251216</v>
       </c>
       <c r="T20">
-        <v>0.02193968598687066</v>
+        <v>0.01417617464444848</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.1617005</v>
+        <v>6.325986</v>
       </c>
       <c r="H21">
-        <v>16.323401</v>
+        <v>12.651972</v>
       </c>
       <c r="I21">
-        <v>0.3018189846633264</v>
+        <v>0.2722379272368294</v>
       </c>
       <c r="J21">
-        <v>0.2237203382187951</v>
+        <v>0.1996053321183234</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N21">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O21">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P21">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q21">
-        <v>448.0030750931826</v>
+        <v>514.263522924618</v>
       </c>
       <c r="R21">
-        <v>2688.018450559096</v>
+        <v>3085.581137547708</v>
       </c>
       <c r="S21">
-        <v>0.09023686714740449</v>
+        <v>0.09869619427876748</v>
       </c>
       <c r="T21">
-        <v>0.07016691387545314</v>
+        <v>0.07493391566818869</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4505540000000001</v>
+        <v>1.165213666666667</v>
       </c>
       <c r="H22">
-        <v>1.351662</v>
+        <v>3.495641</v>
       </c>
       <c r="I22">
-        <v>0.0166614482871554</v>
+        <v>0.05014480800326766</v>
       </c>
       <c r="J22">
-        <v>0.01852520071016408</v>
+        <v>0.05514939353101857</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N22">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O22">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P22">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q22">
-        <v>3.813773956312668</v>
+        <v>10.91051157062511</v>
       </c>
       <c r="R22">
-        <v>34.32396560681401</v>
+        <v>98.19460413562601</v>
       </c>
       <c r="S22">
-        <v>0.0007681710973846267</v>
+        <v>0.002093918626643485</v>
       </c>
       <c r="T22">
-        <v>0.0008959784997370074</v>
+        <v>0.002384674347347771</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4505540000000001</v>
+        <v>1.165213666666667</v>
       </c>
       <c r="H23">
-        <v>1.351662</v>
+        <v>3.495641</v>
       </c>
       <c r="I23">
-        <v>0.0166614482871554</v>
+        <v>0.05014480800326766</v>
       </c>
       <c r="J23">
-        <v>0.01852520071016408</v>
+        <v>0.05514939353101857</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>117.67466</v>
       </c>
       <c r="O23">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P23">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q23">
-        <v>17.67292958721334</v>
+        <v>45.70537401745111</v>
       </c>
       <c r="R23">
-        <v>159.05636628492</v>
+        <v>411.34836615706</v>
       </c>
       <c r="S23">
-        <v>0.003559684939517666</v>
+        <v>0.008771663305918184</v>
       </c>
       <c r="T23">
-        <v>0.004151941126793671</v>
+        <v>0.009989672092809697</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4505540000000001</v>
+        <v>1.165213666666667</v>
       </c>
       <c r="H24">
-        <v>1.351662</v>
+        <v>3.495641</v>
       </c>
       <c r="I24">
-        <v>0.0166614482871554</v>
+        <v>0.05014480800326766</v>
       </c>
       <c r="J24">
-        <v>0.01852520071016408</v>
+        <v>0.05514939353101857</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N24">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O24">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P24">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q24">
-        <v>24.90240643271334</v>
+        <v>83.062180489445</v>
       </c>
       <c r="R24">
-        <v>224.12165789442</v>
+        <v>747.559624405005</v>
       </c>
       <c r="S24">
-        <v>0.005015847581965893</v>
+        <v>0.01594109000028374</v>
       </c>
       <c r="T24">
-        <v>0.005850378394475163</v>
+        <v>0.0181546254514078</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4505540000000001</v>
+        <v>1.165213666666667</v>
       </c>
       <c r="H25">
-        <v>1.351662</v>
+        <v>3.495641</v>
       </c>
       <c r="I25">
-        <v>0.0166614482871554</v>
+        <v>0.05014480800326766</v>
       </c>
       <c r="J25">
-        <v>0.01852520071016408</v>
+        <v>0.05514939353101857</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N25">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O25">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P25">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q25">
-        <v>11.599425547801</v>
+        <v>26.8803519457775</v>
       </c>
       <c r="R25">
-        <v>69.59655328680601</v>
+        <v>161.282111674665</v>
       </c>
       <c r="S25">
-        <v>0.002336358566122388</v>
+        <v>0.005158811231320761</v>
       </c>
       <c r="T25">
-        <v>0.001816719434901193</v>
+        <v>0.003916766280410241</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4505540000000001</v>
+        <v>1.165213666666667</v>
       </c>
       <c r="H26">
-        <v>1.351662</v>
+        <v>3.495641</v>
       </c>
       <c r="I26">
-        <v>0.0166614482871554</v>
+        <v>0.05014480800326766</v>
       </c>
       <c r="J26">
-        <v>0.01852520071016408</v>
+        <v>0.05514939353101857</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N26">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O26">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P26">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q26">
-        <v>24.73131395786134</v>
+        <v>94.72466192304432</v>
       </c>
       <c r="R26">
-        <v>222.581825620752</v>
+        <v>852.521957307399</v>
       </c>
       <c r="S26">
-        <v>0.004981386102164823</v>
+        <v>0.0181793248391015</v>
       </c>
       <c r="T26">
-        <v>0.005810183254257047</v>
+        <v>0.02070365535904306</v>
       </c>
     </row>
   </sheetData>
